--- a/xlsx/country_comparison/support_likert_mean.xlsx
+++ b/xlsx/country_comparison/support_likert_mean.xlsx
@@ -69,10 +69,10 @@
 (US) / €100 million (Eu) for each human</t>
   </si>
   <si>
-    <t xml:space="preserve">National tax on millionaires funding public services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
+    <t xml:space="preserve">National tax on millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global tax on millionaires</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0460734758804601</v>
+        <v>0.0460734910149551</v>
       </c>
       <c r="C2" t="n">
         <v>0.420789285712152</v>
@@ -455,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.363475305693404</v>
+        <v>0.363475325351156</v>
       </c>
       <c r="C3" t="n">
         <v>0.675757600404575</v>
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.17211608754968</v>
+        <v>0.172116107147519</v>
       </c>
       <c r="C4" t="n">
         <v>0.528975011194529</v>
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.124411614548465</v>
+        <v>-0.12441159299716</v>
       </c>
       <c r="C5" t="n">
         <v>0.0349922531460255</v>
@@ -524,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0781277333461605</v>
+        <v>0.0781277396872659</v>
       </c>
       <c r="C6" t="n">
         <v>0.329411627503595</v>
@@ -547,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.168477393155325</v>
+        <v>0.168477401346791</v>
       </c>
       <c r="C7" t="n">
         <v>0.412586129907337</v>
@@ -570,7 +570,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.190580445184863</v>
+        <v>0.190580455975378</v>
       </c>
       <c r="C8" t="n">
         <v>0.540458015688794</v>
@@ -593,7 +593,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.179302448556309</v>
+        <v>0.179302456455172</v>
       </c>
       <c r="C9" t="n">
         <v>0.967744493172847</v>
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.118306581736409</v>
+        <v>-0.118306561742397</v>
       </c>
       <c r="C10" t="n">
         <v>0.269905385393051</v>
@@ -639,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.63299052724653</v>
+        <v>0.63299052696081</v>
       </c>
       <c r="C11" t="n">
         <v>1.03178476588789</v>
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.471390712559358</v>
+        <v>0.471390713228356</v>
       </c>
       <c r="C12" t="n">
         <v>0.939115806311088</v>
